--- a/src/user.xlsx
+++ b/src/user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桂电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,8 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,40 +395,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>222</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10087</v>
       </c>
     </row>
   </sheetData>
